--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963F493A-D156-49EF-90A2-68DDE19C8910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83F062C-59A4-4E47-9814-787C5AFE364C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{3A332BED-9BE0-4854-84D2-774DF88BAA58}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{B3E2DAAE-2814-416A-8A8D-7CE9CEB41D42}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{C3326114-DE57-4F59-9F8B-1C5330EE628C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{D2C00597-5E7C-4D0D-BEBC-87424C0680E8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{C3326114-DE57-4F59-9F8B-1C5330EE628C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{B3E2DAAE-2814-416A-8A8D-7CE9CEB41D42}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{3A332BED-9BE0-4854-84D2-774DF88BAA58}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2386,14 +2386,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2521,19 +2521,19 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2757,7 +2757,7 @@
   <dimension ref="A1:Z919"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3106,177 +3106,177 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:26" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-    </row>
-    <row r="13" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="48" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+    </row>
+    <row r="13" spans="1:26" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-    </row>
-    <row r="14" spans="1:26" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="48" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+    </row>
+    <row r="14" spans="1:26" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+    </row>
+    <row r="15" spans="1:26" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+    </row>
+    <row r="16" spans="1:26" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
@@ -30624,21 +30624,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3A332BED-9BE0-4854-84D2-774DF88BAA58}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C3326114-DE57-4F59-9F8B-1C5330EE628C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{48BF1A00-6E18-43B7-BED4-D85A3012A621}"/>
+      <autoFilter ref="A11:C37" xr:uid="{3573109C-9F70-4C61-B5CE-AE43AEB10692}"/>
+    </customSheetView>
+    <customSheetView guid="{B3E2DAAE-2814-416A-8A8D-7CE9CEB41D42}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{54793502-7656-4B95-B536-A7ECA44A4C70}"/>
     </customSheetView>
     <customSheetView guid="{D2C00597-5E7C-4D0D-BEBC-87424C0680E8}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{1092C9FD-388D-44B6-A4F3-3474BF26784D}"/>
+      <autoFilter ref="A11:D37" xr:uid="{4F5278F2-9B9D-4D9F-9F00-6534B1BA3D63}"/>
     </customSheetView>
-    <customSheetView guid="{B3E2DAAE-2814-416A-8A8D-7CE9CEB41D42}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{3A332BED-9BE0-4854-84D2-774DF88BAA58}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{07E409D7-3AC5-40D8-8BF6-CE119725E2B7}"/>
-    </customSheetView>
-    <customSheetView guid="{C3326114-DE57-4F59-9F8B-1C5330EE628C}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{4E425092-4025-4459-8B97-461765357272}"/>
+      <autoFilter ref="A293:C332" xr:uid="{2E478CCE-2BF5-46D8-947A-5ED0EFEC281A}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">

--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java\DSA_Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83F062C-59A4-4E47-9814-787C5AFE364C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD2A385-EE13-497C-BD23-09676BF885D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3264" yWindow="648" windowWidth="17280" windowHeight="11784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSA in 2.5 Months" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{D2C00597-5E7C-4D0D-BEBC-87424C0680E8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{C3326114-DE57-4F59-9F8B-1C5330EE628C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{B3E2DAAE-2814-416A-8A8D-7CE9CEB41D42}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{3A332BED-9BE0-4854-84D2-774DF88BAA58}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{B3E2DAAE-2814-416A-8A8D-7CE9CEB41D42}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{C3326114-DE57-4F59-9F8B-1C5330EE628C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{D2C00597-5E7C-4D0D-BEBC-87424C0680E8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2329,7 +2329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2396,6 +2396,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2409,7 +2415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2511,16 +2517,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2535,12 +2531,30 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2756,8 +2770,8 @@
   </sheetPr>
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2770,11 +2784,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2800,11 +2814,11 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2829,9 +2843,9 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2859,9 +2873,9 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2955,7 +2969,7 @@
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2"/>
@@ -2989,7 +3003,7 @@
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3106,313 +3120,313 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="43" t="s">
+    <row r="12" spans="1:26" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-    </row>
-    <row r="13" spans="1:26" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="43" t="s">
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+    </row>
+    <row r="13" spans="1:26" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-    </row>
-    <row r="14" spans="1:26" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="43" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+    </row>
+    <row r="14" spans="1:26" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-    </row>
-    <row r="15" spans="1:26" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="43" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+    </row>
+    <row r="15" spans="1:26" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-    </row>
-    <row r="16" spans="1:26" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="43" t="s">
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+    </row>
+    <row r="16" spans="1:26" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+    </row>
+    <row r="17" spans="1:26" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="8" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+    </row>
+    <row r="18" spans="1:26" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="8" t="s">
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+    </row>
+    <row r="19" spans="1:26" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="8" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+    </row>
+    <row r="20" spans="1:26" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
@@ -30624,21 +30638,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C3326114-DE57-4F59-9F8B-1C5330EE628C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{3A332BED-9BE0-4854-84D2-774DF88BAA58}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{3573109C-9F70-4C61-B5CE-AE43AEB10692}"/>
+      <autoFilter ref="A293:C332" xr:uid="{6D0C108A-C814-4A0F-A8BF-4F25618BF67C}"/>
+    </customSheetView>
+    <customSheetView guid="{D2C00597-5E7C-4D0D-BEBC-87424C0680E8}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{AC7A3BF0-458C-4E1F-A387-C8E79D8CB95F}"/>
     </customSheetView>
     <customSheetView guid="{B3E2DAAE-2814-416A-8A8D-7CE9CEB41D42}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{54793502-7656-4B95-B536-A7ECA44A4C70}"/>
+      <autoFilter ref="A11:D37" xr:uid="{75547D12-9D56-4471-8748-0BA20674AEF2}"/>
     </customSheetView>
-    <customSheetView guid="{D2C00597-5E7C-4D0D-BEBC-87424C0680E8}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C3326114-DE57-4F59-9F8B-1C5330EE628C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{4F5278F2-9B9D-4D9F-9F00-6534B1BA3D63}"/>
-    </customSheetView>
-    <customSheetView guid="{3A332BED-9BE0-4854-84D2-774DF88BAA58}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{2E478CCE-2BF5-46D8-947A-5ED0EFEC281A}"/>
+      <autoFilter ref="A11:C37" xr:uid="{37A2EA7F-4CB9-4C92-8355-BAD91900256C}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -31038,7 +31052,9 @@
   </sheetPr>
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31048,28 +31064,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
